--- a/Kangaroo/Resualt/Resualt.xlsx
+++ b/Kangaroo/Resualt/Resualt.xlsx
@@ -8,15 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harek\Documents\TalashExams\Kangaroo\Resualt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B46C652-6C12-4D29-9BF8-FD09ED7A6306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933DC58-5607-49DF-89E7-6A870E6336D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="محمدجواد علینقی" sheetId="6" r:id="rId1"/>
-    <sheet name="امیرحسین شکری" sheetId="5" r:id="rId2"/>
-    <sheet name="ایلیا اسفندیاری" sheetId="4" r:id="rId3"/>
-    <sheet name="امیررضا محمدی" sheetId="3" r:id="rId4"/>
+    <sheet name="نتیجه نهایی" sheetId="24" r:id="rId1"/>
+    <sheet name="محمدمهدی مجدی" sheetId="22" r:id="rId2"/>
+    <sheet name="عرفان غلامی" sheetId="21" r:id="rId3"/>
+    <sheet name="حمیدرضا نیک نفس" sheetId="20" r:id="rId4"/>
+    <sheet name="محمدمهدی رحمانی" sheetId="19" r:id="rId5"/>
+    <sheet name="سیدعلی هاشمی" sheetId="18" r:id="rId6"/>
+    <sheet name="مهدیار احمدی فر" sheetId="17" r:id="rId7"/>
+    <sheet name="امیرعلی طهامسبی" sheetId="16" r:id="rId8"/>
+    <sheet name="محمدطاها حسین زاده" sheetId="15" r:id="rId9"/>
+    <sheet name="امیرعلی مرادی" sheetId="14" r:id="rId10"/>
+    <sheet name="رضا رفعتی" sheetId="13" r:id="rId11"/>
+    <sheet name="علی نعمتی" sheetId="12" r:id="rId12"/>
+    <sheet name="محمدامین عبدلی" sheetId="11" r:id="rId13"/>
+    <sheet name="آریا نجفی" sheetId="10" r:id="rId14"/>
+    <sheet name="امیرعلی اعرابی" sheetId="9" r:id="rId15"/>
+    <sheet name="بی نام (2)" sheetId="8" r:id="rId16"/>
+    <sheet name="بی نام" sheetId="7" r:id="rId17"/>
+    <sheet name="محمدجواد علینقی" sheetId="6" r:id="rId18"/>
+    <sheet name="امیرحسین شکری" sheetId="5" r:id="rId19"/>
+    <sheet name="ایلیا اسفندیاری" sheetId="4" r:id="rId20"/>
+    <sheet name="امیررضا محمدی" sheetId="3" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="29">
   <si>
     <t>داوطلب</t>
   </si>
@@ -58,6 +75,72 @@
   </si>
   <si>
     <t>تعداد درست ضریب 4</t>
+  </si>
+  <si>
+    <t>نفرات</t>
+  </si>
+  <si>
+    <t>رتبه</t>
+  </si>
+  <si>
+    <t>امیررضا محمدی</t>
+  </si>
+  <si>
+    <t>ایلیا اسفندیاری</t>
+  </si>
+  <si>
+    <t>امیرحسین شکری</t>
+  </si>
+  <si>
+    <t>محمدجواد علینقی</t>
+  </si>
+  <si>
+    <t>محمدمهدی مجدی</t>
+  </si>
+  <si>
+    <t>عرفان غلامی</t>
+  </si>
+  <si>
+    <t>حمیدرضا نیک نفس</t>
+  </si>
+  <si>
+    <t>محمدمهدی رحمانی</t>
+  </si>
+  <si>
+    <t>سیدعلی هاشمی</t>
+  </si>
+  <si>
+    <t>مهدی‏یار احمدی فر</t>
+  </si>
+  <si>
+    <t>امیرعلی طهماسبی</t>
+  </si>
+  <si>
+    <t>محمدطاها حسین زاده</t>
+  </si>
+  <si>
+    <t>امیرعلی مرادی</t>
+  </si>
+  <si>
+    <t>رضا رفعتی</t>
+  </si>
+  <si>
+    <t>علی نعمتی</t>
+  </si>
+  <si>
+    <t>محمدامین عبدلی</t>
+  </si>
+  <si>
+    <t>آریا نجفی</t>
+  </si>
+  <si>
+    <t>امیرعلی اعرابی</t>
+  </si>
+  <si>
+    <t>بی نام 1</t>
+  </si>
+  <si>
+    <t>بی نام 2</t>
   </si>
 </sst>
 </file>
@@ -99,7 +182,327 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -191,6 +594,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E47D2E3-8BE8-4089-B993-6E344E402D04}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{8E47D2E3-8BE8-4089-B993-6E344E402D04}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition descending="1" ref="C2:C21"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4F8FDE26-8F41-4C68-BEF4-0B64B0309163}" name="رتبه"/>
+    <tableColumn id="2" xr3:uid="{D1F2CF2E-14F3-4AA7-9262-C1549264243A}" name="نفرات"/>
+    <tableColumn id="3" xr3:uid="{37407003-6872-4665-B194-BF3AE23D93AF}" name="درصد"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,10 +907,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D5E52-BA04-4686-B899-1CDAD0B10CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D87C0-EC59-4121-82A4-9B17644B1530}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <f>'امیرعلی مرادی'!G2</f>
+        <v>4.5882352941176467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>'سیدعلی هاشمی'!G2</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <f>'محمدطاها حسین زاده'!G2</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f>'محمدامین عبدلی'!G2</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>'امیرعلی طهامسبی'!G2</f>
+        <v>3.5882352941176472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>'محمدجواد علینقی'!G2</f>
+        <v>3.0588235294117645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <f>'رضا رفعتی'!G2</f>
+        <v>2.8235294117647061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f>'امیرحسین شکری'!G2</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <f>'مهدیار احمدی فر'!G2</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <f>'علی نعمتی'!G2</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f>'آریا نجفی'!G2</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <f>'بی نام'!G2</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f>'امیرعلی اعرابی'!G2</f>
+        <v>1.5294117647058822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <f>'بی نام (2)'!G2</f>
+        <v>1.5294117647058822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f>'امیررضا محمدی'!G2</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <f>'ایلیا اسفندیاری'!G2</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <f>'محمدمهدی مجدی'!G2</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>'حمیدرضا نیک نفس'!G2</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f>'محمدمهدی رحمانی'!G2</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>'عرفان غلامی'!G2</f>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3D0334-029E-454F-82B6-BB93B654D981}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +1233,7 @@
       </c>
       <c r="D2">
         <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <f>COUNTIF(C12:C18,TRUE)*4</f>
@@ -546,23 +1241,23 @@
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.0588235294117645</v>
+        <v>4.5882352941176467</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="b">
         <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,19 +1274,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -603,7 +1298,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -615,14 +1310,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,19 +1346,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -675,7 +1370,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -687,7 +1382,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -723,34 +1418,34 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -758,7 +1453,2167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F0B4C-B478-4B5B-A12C-E8C3C47D33E7}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>2.8235294117647061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D1E5C-89EA-4994-A41F-35B8E295F9AB}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE62F886-687F-494C-88B0-3E955BE02A9A}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44238CF2-175C-4612-BCC2-7E48E481119C}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE02AD-68AB-498F-96F2-7AB8C9A023D8}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>1.5294117647058822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971F13C-F508-4086-B075-E927564EAFB8}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>1.5294117647058822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424463C-A559-4A67-9C69-4E03829B8BFC}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D5E52-BA04-4686-B899-1CDAD0B10CDE}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>3.0588235294117645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC73828-ADB7-4214-B34E-31A87EF7622A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1017,10 +3872,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1028,7 +3883,277 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81485DF2-D242-4540-B418-A6AAFEAC2099}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB09F7D-6F7B-49CD-BA10-B80C0AAE5A40}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1287,10 +4412,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1298,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D44584-2459-434C-A170-31B3EC9B489D}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1557,10 +4682,1900 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8504B039-970C-493F-B38B-4363219B25FD}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492190F9-78E3-4B1A-977B-D25B4110D801}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2AA9E6-9910-4A5D-8C0E-C45FBFEF6239}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>1.2941176470588236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D591DA99-B8A0-48FA-ADBD-2C7D0E5C71AD}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2317C439-F39F-42FE-8155-2C471816A32A}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>2.0588235294117645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157415FC-6226-4081-A843-798875E5A927}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>3.5882352941176472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D16D9-CAD5-4442-80BE-4D5415416E12}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(C2:C18,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(C2:C11,TRUE)*3</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>(4*(F2+E2)-D2)/17</f>
+        <v>3.8235294117647061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF(A10=B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF(A12=B12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Kangaroo/Resualt/Resualt.xlsx
+++ b/Kangaroo/Resualt/Resualt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harek\Documents\TalashExams\Kangaroo\Resualt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933DC58-5607-49DF-89E7-6A870E6336D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DB90D-13AD-407C-B827-29DAB837A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kangaroo/Resualt/Resualt.xlsx
+++ b/Kangaroo/Resualt/Resualt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harek\Documents\TalashExams\Kangaroo\Resualt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/TalashExams/Kangaroo/Resualt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897DB90D-13AD-407C-B827-29DAB837A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236B23F-B987-344A-9420-C30BEDE78014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
   </bookViews>
   <sheets>
     <sheet name="نتیجه نهایی" sheetId="24" r:id="rId1"/>
@@ -147,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,13 +179,614 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -910,21 +1514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D87C0-EC59-4121-82A4-9B17644B1530}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -935,19 +1539,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <f>'امیرعلی مرادی'!G2</f>
-        <v>4.5882352941176467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'محمدطاها حسین زاده'!K2</f>
+        <v>36.206896551724135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -955,224 +1559,224 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <f>'سیدعلی هاشمی'!G2</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'سیدعلی هاشمی'!K2</f>
+        <v>31.896551724137932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <f>'محمدطاها حسین زاده'!G2</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'امیرعلی مرادی'!K2</f>
+        <v>29.741379310344829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>'محمدجواد علینقی'!K2</f>
+        <v>25.431034482758619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <f>'محمدامین عبدلی'!G2</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <f>'محمدامین عبدلی'!K2</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <f>'بی نام'!K2</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f>'بی نام (2)'!K2</f>
+        <v>20.258620689655171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <f>'عرفان غلامی'!K2</f>
+        <v>19.396551724137932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <f>'رضا رفعتی'!K2</f>
+        <v>18.103448275862068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>'امیرحسین شکری'!K2</f>
+        <v>18.103448275862068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>'ایلیا اسفندیاری'!K2</f>
+        <v>17.241379310344829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <f>'امیرعلی طهامسبی'!G2</f>
-        <v>3.5882352941176472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f>'محمدجواد علینقی'!G2</f>
-        <v>3.0588235294117645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <f>'رضا رفعتی'!G2</f>
-        <v>2.8235294117647061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C13">
+        <f>'امیرعلی طهامسبی'!K2</f>
+        <v>16.810344827586206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
-      </c>
-      <c r="C9">
-        <f>'امیرحسین شکری'!G2</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <f>'مهدیار احمدی فر'!G2</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <f>'علی نعمتی'!G2</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <f>'آریا نجفی'!G2</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <f>'بی نام'!G2</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14">
-        <f>'امیرعلی اعرابی'!G2</f>
-        <v>1.5294117647058822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'امیرعلی اعرابی'!K2</f>
+        <v>14.224137931034484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <f>'بی نام (2)'!G2</f>
-        <v>1.5294117647058822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <f>'حمیدرضا نیک نفس'!K2</f>
+        <v>14.224137931034484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f>'مهدیار احمدی فر'!K2</f>
+        <v>12.931034482758621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f>'محمدمهدی رحمانی'!K2</f>
+        <v>12.931034482758621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f>'آریا نجفی'!K2</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <f>'محمدمهدی مجدی'!K2</f>
+        <v>11.637931034482758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <f>'امیررضا محمدی'!G2</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <f>'ایلیا اسفندیاری'!G2</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <f>'محمدمهدی مجدی'!G2</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <f>'حمیدرضا نیک نفس'!G2</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20">
+        <f>'امیررضا محمدی'!K2</f>
+        <v>9.0517241379310338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="C20">
-        <f>'محمدمهدی رحمانی'!G2</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <f>'عرفان غلامی'!G2</f>
-        <v>0.52941176470588236</v>
+        <f>'علی نعمتی'!K2</f>
+        <v>8.1896551724137936</v>
       </c>
     </row>
   </sheetData>
@@ -1185,19 +1789,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3D0334-029E-454F-82B6-BB93B654D981}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,11 +1821,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1228,27 +1833,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>10</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>4.5882352941176467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.29741379310344829</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>29.741379310344829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1256,59 +1877,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1320,19 +1941,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1340,11 +1961,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1356,31 +1977,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1392,61 +2013,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,19 +2069,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F0B4C-B478-4B5B-A12C-E8C3C47D33E7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1486,11 +2101,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1498,27 +2113,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>12</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.8235294117647061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>18.103448275862068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1526,59 +2157,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1590,19 +2221,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1610,47 +2241,47 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1662,33 +2293,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1698,25 +2329,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1725,19 +2349,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D1E5C-89EA-4994-A41F-35B8E295F9AB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,11 +2381,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1768,27 +2393,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>13</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>8.1896551724137928E-2</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>8.1896551724137936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1796,83 +2437,83 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1880,113 +2521,106 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1995,19 +2629,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE62F886-687F-494C-88B0-3E955BE02A9A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2026,11 +2661,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2038,27 +2673,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>11</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>56</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2066,59 +2717,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2130,19 +2781,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2150,11 +2801,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2166,97 +2817,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2265,19 +2909,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44238CF2-175C-4612-BCC2-7E48E481119C}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2296,11 +2941,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2308,27 +2953,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>13</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.125</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2336,83 +2997,83 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2420,11 +3081,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2436,31 +3097,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2472,61 +3133,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,19 +3189,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE02AD-68AB-498F-96F2-7AB8C9A023D8}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2566,11 +3221,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2578,15 +3233,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
@@ -2594,11 +3249,27 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.5294117647058822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.14224137931034483</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>14.224137931034484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2606,59 +3277,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2670,19 +3341,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2690,113 +3361,106 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2805,19 +3469,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971F13C-F508-4086-B075-E927564EAFB8}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2836,11 +3501,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2848,87 +3513,103 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.5294117647058822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>52</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.20258620689655171</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>20.258620689655171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2940,19 +3621,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2960,11 +3641,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2976,43 +3657,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3024,49 +3705,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,19 +3749,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424463C-A559-4A67-9C69-4E03829B8BFC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3106,11 +3781,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3118,27 +3793,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>13</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
-        <v>0</v>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
+        <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
         <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>56</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3146,59 +3837,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3210,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3222,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3230,11 +3921,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3246,31 +3937,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3282,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3294,49 +3985,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3345,19 +4029,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D5E52-BA04-4686-B899-1CDAD0B10CDE}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3376,11 +4061,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3388,15 +4073,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>12</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
@@ -3404,11 +4089,27 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>59</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.25431034482758619</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>25.431034482758619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3416,59 +4117,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3480,19 +4181,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3500,11 +4201,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3516,31 +4217,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3552,61 +4253,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3615,19 +4309,20 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC73828-ADB7-4214-B34E-31A87EF7622A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3646,11 +4341,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3658,15 +4353,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>13</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -3674,11 +4369,27 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>G2*4</f>
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.18103448275862069</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>18.103448275862068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3686,59 +4397,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3750,19 +4461,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3770,11 +4481,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3786,69 +4497,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3858,25 +4569,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3885,19 +4589,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81485DF2-D242-4540-B418-A6AAFEAC2099}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3916,11 +4621,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3928,15 +4633,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>9</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -3944,11 +4649,27 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.11637931034482758</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>11.637931034482758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3956,59 +4677,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4020,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4032,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4040,11 +4761,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4056,31 +4777,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4092,33 +4813,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4128,25 +4849,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4155,19 +4869,20 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB09F7D-6F7B-49CD-BA10-B80C0AAE5A40}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4186,11 +4901,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4198,27 +4913,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>G2*4</f>
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>17.241379310344829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4226,59 +4957,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4290,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4302,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4310,11 +5041,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4326,97 +5057,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4425,19 +5149,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D44584-2459-434C-A170-31B3EC9B489D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4456,11 +5181,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4468,111 +5193,127 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f>G2*4</f>
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>9.0517241379310345E-2</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>9.0517241379310338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4580,11 +5321,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4596,97 +5337,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4695,19 +5429,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8504B039-970C-493F-B38B-4363219B25FD}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4726,11 +5461,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4738,27 +5473,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>15</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
-        <v>0</v>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
+        <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>0.52941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>52</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.19396551724137931</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>19.396551724137932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4766,59 +5517,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4830,19 +5581,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4850,11 +5601,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4866,69 +5617,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4938,25 +5689,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4965,19 +5709,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492190F9-78E3-4B1A-977B-D25B4110D801}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4996,11 +5741,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5008,27 +5753,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
-        <v>0</v>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
+        <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.14224137931034483</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>14.224137931034484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5036,71 +5797,71 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5112,19 +5873,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5136,67 +5897,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5208,25 +5969,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5235,19 +5989,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2AA9E6-9910-4A5D-8C0E-C45FBFEF6239}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5266,11 +6021,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5278,15 +6033,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>14</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -5294,11 +6049,27 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>1.2941176470588236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.12931034482758622</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>12.931034482758621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5306,59 +6077,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5370,19 +6141,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5390,11 +6161,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5406,31 +6177,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5442,61 +6213,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5505,19 +6269,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D591DA99-B8A0-48FA-ADBD-2C7D0E5C71AD}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5536,11 +6301,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5548,27 +6313,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>11</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
-        <v>4</v>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
+        <v>8</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>74</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.31896551724137934</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>31.896551724137932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5576,59 +6357,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5640,19 +6421,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5660,11 +6441,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5676,31 +6457,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5712,61 +6493,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5775,19 +6549,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2317C439-F39F-42FE-8155-2C471816A32A}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5806,11 +6581,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5818,27 +6593,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>13</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>2.0588235294117645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.12931034482758622</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>12.931034482758621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5846,59 +6637,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5910,19 +6701,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5930,85 +6721,85 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6018,25 +6809,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6045,19 +6829,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157415FC-6226-4081-A843-798875E5A927}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6076,11 +6861,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6088,27 +6873,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>11</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>9</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.5882352941176472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>4*G2</f>
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.16810344827586207</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>16.810344827586206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6116,59 +6917,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6180,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6192,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6200,11 +7001,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6216,69 +7017,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6288,25 +7089,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6315,19 +7109,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D16D9-CAD5-4442-80BE-4D5415416E12}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6346,11 +7141,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6358,27 +7153,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <f>IF(A2=B2,TRUE,FALSE)</f>
+        <f>IF(A2=B2,TRUE,IF(A2=0,0,FALSE))</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(C2:C18,FALSE)</f>
-        <v>11</v>
+        <f>COUNTIF(C2:C17,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(C12:C18,TRUE)*4</f>
+        <f>COUNTIF(C12:C17,TRUE)*4</f>
         <v>4</v>
       </c>
       <c r="F2">
         <f>COUNTIF(C2:C11,TRUE)*3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <f>(4*(F2+E2)-D2)/17</f>
-        <v>3.8235294117647061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F2+E2</f>
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <f>G2*4</f>
+        <v>88</v>
+      </c>
+      <c r="I2">
+        <f>H2-D2</f>
+        <v>84</v>
+      </c>
+      <c r="J2">
+        <f>I2/232</f>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="K2">
+        <f>J2*100</f>
+        <v>36.206896551724135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6386,59 +7197,59 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <f t="shared" ref="C3:C18" si="0">IF(A3=B3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C17" si="0">IF(A3=B3,TRUE,IF(A3=0,0,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6450,19 +7261,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6470,11 +7281,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <f>IF(A10=B10,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6486,31 +7297,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="b">
-        <f>IF(A12=B12,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6522,61 +7333,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="b">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kangaroo/Resualt/Resualt.xlsx
+++ b/Kangaroo/Resualt/Resualt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/TalashExams/Kangaroo/Resualt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236B23F-B987-344A-9420-C30BEDE78014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4519DE6-1A99-F341-990A-18F9B7957D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="11" xr2:uid="{FD5A05D5-3ECA-4382-B9BB-08A55F8B9F08}"/>
   </bookViews>
   <sheets>
     <sheet name="نتیجه نهایی" sheetId="24" r:id="rId1"/>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2351,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8D1E5C-89EA-4994-A41F-35B8E295F9AB}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2632,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4032,7 +4032,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4591,7 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81485DF2-D242-4540-B418-A6AAFEAC2099}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6272,7 +6272,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7111,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D16D9-CAD5-4442-80BE-4D5415416E12}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView topLeftCell="B1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
